--- a/biology/Botanique/Olea_rubrovenia/Olea_rubrovenia.xlsx
+++ b/biology/Botanique/Olea_rubrovenia/Olea_rubrovenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea rubrovenia (Elmer) Kiew est un végétal appartenant au genre Olea. C'est un arbre qui peut atteindre 10 m de haut. Il pousse en Malaisie et au Sarawak. Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Linociera rubrovenia Elmer (1909,
 Ilex decussata Heine (1953),
@@ -546,12 +560,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbre qui peut atteindre 10 m de haut. Les jeunes pousses sont glabres.  Les feuilles sont  coriaces, glabres, avec des pétioles qui ont entre 5 et 15 mm de long. Le limbe est ovale à elliptique, oblong ou oblong-lancéolé de (3,5-)6 à 10(-13) cm de long et large de (2-)2,5 à 4,5(-6) cm de large, la base est largement aigüe à étroitement obtuse, atténuée sur le pétiole, l'apex est aigu, acuminé, occasionnellement raccourci ainsi. Les bords sont entiers. Il y a 6 à 8 nervures primaires de part et d'autre de la nervure centrale laquelle est saillante sur le dessous, enfoncée sur le dessus, la nervuration est d'autre part de couleur sombre.
-Appareil reproducteur
-Les inflorescences sont axillaires en panicules denses, de 1 à 2 cm de long, à fleurs abondantes sub-ombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long. Les pédicelles ont 0,5 à 1 mm de long. Les fleurs mâles viennent des bourgeons un peu globuleux mesurant 1 mm de diamètre. Le calice mesure 1 mm de long, largement quadrilobè, glabre avec les bords ciliés. La corolle mesure 1 à 1,5 mm de long, divisée légèrement moins qu'à la moitiè avec des lobes oblongs, arrondis et cucullés. Les étamines sont largement ellipsoïdes de 1 mm de long dans les fleurs bisexuées, de 1,5 mm dans les fleurs mâles, subsessiles, connectives, sans appendices. L'ovaire est en forme de bouteille, de 2 mm de long, le style à peine visible, le stigmate petit, bilobé, abortif dans les fleurs mâmes. Le fruit est une drupe ovoïde de 1,8 par 1,5 cm.
-Répartition géographique
-Le matériel examiné provient de :
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui peut atteindre 10 m de haut. Les jeunes pousses sont glabres.  Les feuilles sont  coriaces, glabres, avec des pétioles qui ont entre 5 et 15 mm de long. Le limbe est ovale à elliptique, oblong ou oblong-lancéolé de (3,5-)6 à 10(-13) cm de long et large de (2-)2,5 à 4,5(-6) cm de large, la base est largement aigüe à étroitement obtuse, atténuée sur le pétiole, l'apex est aigu, acuminé, occasionnellement raccourci ainsi. Les bords sont entiers. Il y a 6 à 8 nervures primaires de part et d'autre de la nervure centrale laquelle est saillante sur le dessous, enfoncée sur le dessus, la nervuration est d'autre part de couleur sombre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_rubrovenia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_rubrovenia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires en panicules denses, de 1 à 2 cm de long, à fleurs abondantes sub-ombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long. Les pédicelles ont 0,5 à 1 mm de long. Les fleurs mâles viennent des bourgeons un peu globuleux mesurant 1 mm de diamètre. Le calice mesure 1 mm de long, largement quadrilobè, glabre avec les bords ciliés. La corolle mesure 1 à 1,5 mm de long, divisée légèrement moins qu'à la moitiè avec des lobes oblongs, arrondis et cucullés. Les étamines sont largement ellipsoïdes de 1 mm de long dans les fleurs bisexuées, de 1,5 mm dans les fleurs mâles, subsessiles, connectives, sans appendices. L'ovaire est en forme de bouteille, de 2 mm de long, le style à peine visible, le stigmate petit, bilobé, abortif dans les fleurs mâmes. Le fruit est une drupe ovoïde de 1,8 par 1,5 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_rubrovenia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_rubrovenia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le matériel examiné provient de :
 Malaisie : Sabah - Parc National du Mont Kinabalu, Bembagan (1964),
 Sarawak : Parc National Gunong Mulu (1976).
 C'est une espèce de haute altitude, endémique du Mont Kinabalu (Sabah) mais également enregistré dans le Gunong Mulu (en bordure du Sarawak). Elle a été enregistrée sur les flancs et les crètes entre 1.500 et 2.400 m.
@@ -559,57 +648,61 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olea_rubrovenia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_rubrovenia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Olea_rubrovenia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_rubrovenia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
